--- a/template/packinglistTem6.xlsx
+++ b/template/packinglistTem6.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D4D0DFF-39DE-844D-AE3E-5A6D6D44E835}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF40B4-C19A-2049-B9D8-7143C1122BE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18520" yWindow="740" windowWidth="25260" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="460" windowWidth="25260" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HA0762" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -159,8 +159,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -387,16 +387,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,14 +411,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,21 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,7 +761,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -809,24 +809,24 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -867,24 +867,24 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -897,24 +897,24 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -955,24 +955,24 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1393,10 +1393,10 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="32"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="16" t="s">
         <v>7</v>
       </c>
@@ -1435,8 +1435,8 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="18" t="s">
         <v>13</v>
       </c>
@@ -1661,11 +1661,11 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -1868,8 +1868,8 @@
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
